--- a/target/test-classes/testdata/emps.xlsx
+++ b/target/test-classes/testdata/emps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawlo\IdeaProjects\MavenProject\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9F5DEA-1DE0-4532-A652-08CA0AE6A1CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18EFBE6-F0C0-43ED-8087-A896266C690C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34305" yWindow="3660" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,40 +57,40 @@
     <t>C:\Users\pawlo\IdeaProjects\MavenProject\src\test\resources\testdata\testimage.png</t>
   </si>
   <si>
-    <t>wymysli</t>
-  </si>
-  <si>
-    <t>obejdzie</t>
-  </si>
-  <si>
-    <t>wokolo</t>
-  </si>
-  <si>
-    <t>zabrudzi</t>
-  </si>
-  <si>
-    <t>wyczysci</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>przy</t>
-  </si>
-  <si>
-    <t>ptaszek</t>
-  </si>
-  <si>
-    <t>drodze</t>
-  </si>
-  <si>
-    <t>brat1213</t>
-  </si>
-  <si>
-    <t>oprzy123</t>
-  </si>
-  <si>
-    <t>masz7niea</t>
+    <t>dzieci</t>
+  </si>
+  <si>
+    <t>wesolo</t>
+  </si>
+  <si>
+    <t>wybiegly</t>
+  </si>
+  <si>
+    <t>dzieci123</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>szkoly</t>
+  </si>
+  <si>
+    <t>zapalily</t>
+  </si>
+  <si>
+    <t>zapalily123</t>
+  </si>
+  <si>
+    <t>papierosa</t>
+  </si>
+  <si>
+    <t>wyciagnely</t>
+  </si>
+  <si>
+    <t>flaszki</t>
+  </si>
+  <si>
+    <t>fglaszki1234</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>6</v>
@@ -488,19 +488,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
@@ -508,13 +508,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
